--- a/data/exp1_demographic.xlsx
+++ b/data/exp1_demographic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giulia.mazzi\Documents\projects\fabic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giulia.mazzi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{272BAC60-4384-4D0C-B546-F46F01A9CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E631A1-7B12-406C-A647-3CFEE508E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="2010" windowWidth="23715" windowHeight="12315" xr2:uid="{6CA517E6-0515-43C5-87F4-4C30411C28D4}"/>
+    <workbookView xWindow="2565" yWindow="2205" windowWidth="23715" windowHeight="12315" xr2:uid="{6CA517E6-0515-43C5-87F4-4C30411C28D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3BBA8-55DC-4796-93D2-CF5E2C9E27F8}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,12 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
